--- a/data/trans_bre/P32A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Habitat-trans_bre.xlsx
@@ -660,24 +660,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.702181543140382</v>
+        <v>-2.591373274593891</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.109580170253286</v>
+        <v>-1.117204226008407</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.078936812367162</v>
+        <v>-2.009167682790458</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.307276702514681</v>
+        <v>-2.32179965824607</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.6710315904708822</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.708830778869978</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="n">
         <v>-1</v>
       </c>
@@ -690,26 +688,24 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.2456235069899218</v>
+        <v>-0.2434100797018431</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.545163855195948</v>
+        <v>3.900548966021289</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.425721203999996</v>
+        <v>2.465782056793945</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9286700457910811</v>
+        <v>1.036668042926372</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>7.351257782359531</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>3.743084674128559</v>
-      </c>
+        <v>5.806781118782684</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>2.697421444553139</v>
+        <v>4.515623012547925</v>
       </c>
     </row>
     <row r="7">
@@ -745,7 +741,7 @@
         <v>-0.6811538297982995</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.8076135636974802</v>
+        <v>0.8076135636974799</v>
       </c>
     </row>
     <row r="8">
@@ -756,26 +752,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.78594648323964</v>
+        <v>-1.894970959097392</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.663891020659982</v>
+        <v>-3.595180289952468</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.866837842684812</v>
+        <v>-3.758644819970525</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.4864023651109617</v>
+        <v>-0.6773513124312041</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.9383389815328095</v>
+        <v>-0.9277622548781299</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3602267422598419</v>
+        <v>-0.414238789041297</v>
       </c>
     </row>
     <row r="9">
@@ -786,26 +782,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.3089143737824779</v>
+        <v>-0.3305770002845906</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.3941291831783609</v>
+        <v>-0.3771708504879444</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.2925571860724911</v>
+        <v>-0.08715712631767683</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.101566118630246</v>
+        <v>4.536936862171926</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>0.4140142153553316</v>
+        <v>0.6665434846250622</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2359277303980029</v>
+        <v>0.2523256879573322</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.916188702100833</v>
+        <v>4.697113327343429</v>
       </c>
     </row>
     <row r="10">
@@ -841,7 +837,7 @@
         <v>-0.7905441881893607</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.8660578199091419</v>
+        <v>0.8660578199091422</v>
       </c>
     </row>
     <row r="11">
@@ -852,16 +848,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.508721107673736</v>
+        <v>-3.453769196759927</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.057716329249351</v>
+        <v>-5.949712496524266</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.234348241307741</v>
+        <v>-3.326838434595035</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.068407635316335</v>
+        <v>-1.012369230416514</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>-1</v>
@@ -871,7 +867,7 @@
         <v>-1</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6558368754923262</v>
+        <v>-0.633030185560913</v>
       </c>
     </row>
     <row r="12">
@@ -882,26 +878,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6136524365193237</v>
+        <v>0.9666972567358486</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.012803673389682</v>
+        <v>-1.965698196864475</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.05083862162525434</v>
+        <v>-0.06126956780056526</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.920714564070133</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>1.646159615436968</v>
+        <v>5.787700806894875</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="n">
-        <v>1.08552122526447</v>
+        <v>0.7726832142469353</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>6.663676569107342</v>
+        <v>7.413575832299219</v>
       </c>
     </row>
     <row r="13">
@@ -948,26 +946,26 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.6572624663347469</v>
+        <v>-0.654610771728704</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.834740488053522</v>
+        <v>-3.627517875100957</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.6396690063178225</v>
+        <v>-0.8546445920380379</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.465705382059696</v>
+        <v>-2.582067040662236</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9284534762799648</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4210308543498485</v>
+        <v>-0.4816647981973717</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7696159069376142</v>
+        <v>-0.7836401906685945</v>
       </c>
     </row>
     <row r="15">
@@ -978,26 +976,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.508332339251477</v>
+        <v>1.649449333683942</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.02251285747635819</v>
+        <v>0.04070956334066832</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.297228890255863</v>
+        <v>2.905130164089261</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.969047463304176</v>
+        <v>1.781001826048931</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>0.2305090391640968</v>
+        <v>0.2659756437547073</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4.873160476489597</v>
+        <v>3.934512237880446</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.603268164112438</v>
+        <v>1.427548328191816</v>
       </c>
     </row>
     <row r="16">
@@ -1044,28 +1042,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.323496763425835</v>
+        <v>-1.318899267735396</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.582866014374939</v>
+        <v>-2.629339828007854</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.596154713582082</v>
+        <v>-1.5463826644914</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.7058190524722343</v>
+        <v>-0.7660696692833331</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.8559274991742313</v>
+        <v>-0.8589658741704892</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.666634448822464</v>
+        <v>-0.6598510149449311</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3411772114750899</v>
+        <v>-0.3699262946160345</v>
       </c>
     </row>
     <row r="18">
@@ -1076,28 +1074,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.1129300352295978</v>
+        <v>-0.1442775007574596</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.6089050609537234</v>
+        <v>-0.7478064476939361</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3051019492576221</v>
+        <v>0.247840272896862</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.768912329021334</v>
+        <v>1.7459400786203</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.06748838457661596</v>
+        <v>-0.04053880773864792</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.2676823961487755</v>
+        <v>-0.2918341619036845</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2084299750039198</v>
+        <v>0.2206383833353281</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.218508748106703</v>
+        <v>1.216915229884839</v>
       </c>
     </row>
     <row r="19">
